--- a/data/financial_statements/soci/AZO.xlsx
+++ b/data/financial_statements/soci/AZO.xlsx
@@ -14,9 +14,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,147 +610,147 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="L1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="M1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="W1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="X1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>3985000000</v>
+        <v>3985067000</v>
       </c>
       <c r="C2">
-        <v>5348000000</v>
+        <v>5348354000</v>
       </c>
       <c r="D2">
         <v>3865222000</v>
@@ -636,10 +759,10 @@
         <v>3865000000</v>
       </c>
       <c r="F2">
-        <v>3370000000</v>
+        <v>3369750000</v>
       </c>
       <c r="G2">
-        <v>3669000000</v>
+        <v>3668904000</v>
       </c>
       <c r="H2">
         <v>4913483000</v>
@@ -754,14 +877,14 @@
       </c>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>0.1825</v>
+        <v>0.1826</v>
       </c>
       <c r="C3">
-        <v>0.4576</v>
+        <v>0.4578</v>
       </c>
       <c r="D3">
         <v>-0.2133</v>
@@ -773,7 +896,7 @@
         <v>-0.077</v>
       </c>
       <c r="G3">
-        <v>0.2605</v>
+        <v>0.2604</v>
       </c>
       <c r="H3">
         <v>0.5577</v>
@@ -888,14 +1011,14 @@
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>1990000000</v>
+        <v>1990445000</v>
       </c>
       <c r="C4">
-        <v>2593000000</v>
+        <v>2592504000</v>
       </c>
       <c r="D4">
         <v>1858808000</v>
@@ -904,10 +1027,10 @@
         <v>1859000000</v>
       </c>
       <c r="F4">
-        <v>1585000000</v>
+        <v>1584524000</v>
       </c>
       <c r="G4">
-        <v>1744000000</v>
+        <v>1743744000</v>
       </c>
       <c r="H4">
         <v>2345644000</v>
@@ -1022,14 +1145,14 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>1995000000</v>
+        <v>1994622000</v>
       </c>
       <c r="C5">
-        <v>2756000000</v>
+        <v>2755851000</v>
       </c>
       <c r="D5">
         <v>2006414000</v>
@@ -1038,10 +1161,10 @@
         <v>2006000000</v>
       </c>
       <c r="F5">
-        <v>1785000000</v>
+        <v>1785226000</v>
       </c>
       <c r="G5">
-        <v>1925000000</v>
+        <v>1925160000</v>
       </c>
       <c r="H5">
         <v>2567840000</v>
@@ -1156,8 +1279,8 @@
       </c>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1271589000</v>
@@ -1290,8 +1413,8 @@
       </c>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B7">
         <v>723033000</v>
@@ -1418,8 +1541,8 @@
       </c>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B8">
         <v>58000000</v>
@@ -1459,8 +1582,8 @@
       </c>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B9">
         <v>57723000</v>
@@ -1587,8 +1710,8 @@
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B10">
         <v>-57723000</v>
@@ -1721,14 +1844,14 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>665000000</v>
+        <v>665310000</v>
       </c>
       <c r="C11">
-        <v>1040000000</v>
+        <v>1039819000</v>
       </c>
       <c r="D11">
         <v>743782000</v>
@@ -1737,10 +1860,10 @@
         <v>744000000</v>
       </c>
       <c r="F11">
-        <v>584000000</v>
+        <v>584289000</v>
       </c>
       <c r="G11">
-        <v>711000000</v>
+        <v>711201000</v>
       </c>
       <c r="H11">
         <v>985909900</v>
@@ -1855,14 +1978,14 @@
       </c>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>126000000</v>
+        <v>125992000</v>
       </c>
       <c r="C12">
-        <v>230000000</v>
+        <v>229776000</v>
       </c>
       <c r="D12">
         <v>151211000</v>
@@ -1871,10 +1994,10 @@
         <v>151000000</v>
       </c>
       <c r="F12">
-        <v>113000000</v>
+        <v>112534000</v>
       </c>
       <c r="G12">
-        <v>156000000</v>
+        <v>155966000</v>
       </c>
       <c r="H12">
         <v>200139000</v>
@@ -1989,8 +2112,8 @@
       </c>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B13">
         <v>539318000</v>
@@ -2117,8 +2240,8 @@
       </c>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="M14">
         <v>-100</v>
@@ -2146,14 +2269,14 @@
       </c>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>539000000</v>
+        <v>539318000</v>
       </c>
       <c r="C15">
-        <v>810000000</v>
+        <v>810043000</v>
       </c>
       <c r="D15">
         <v>592571000</v>
@@ -2162,10 +2285,10 @@
         <v>593000000</v>
       </c>
       <c r="F15">
-        <v>472000000</v>
+        <v>471755000</v>
       </c>
       <c r="G15">
-        <v>555000000</v>
+        <v>555235000</v>
       </c>
       <c r="H15">
         <v>785770900</v>
@@ -2280,14 +2403,14 @@
       </c>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>27.45</v>
+        <v>28.37</v>
       </c>
       <c r="C16">
-        <v>40.51</v>
+        <v>41.81</v>
       </c>
       <c r="D16">
         <v>29.93</v>
@@ -2296,10 +2419,10 @@
         <v>29.03</v>
       </c>
       <c r="F16">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>25.69</v>
+        <v>26.45</v>
       </c>
       <c r="H16">
         <v>36.72</v>
@@ -2414,8 +2537,8 @@
       </c>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B17">
         <v>27.45</v>
@@ -2545,14 +2668,14 @@
       </c>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>19000000</v>
+        <v>19007000</v>
       </c>
       <c r="C18">
-        <v>19000000</v>
+        <v>20107000</v>
       </c>
       <c r="D18">
         <v>19798000</v>
@@ -2561,10 +2684,10 @@
         <v>20000000</v>
       </c>
       <c r="F18">
-        <v>21000000</v>
+        <v>20513000</v>
       </c>
       <c r="G18">
-        <v>21000000</v>
+        <v>20988000</v>
       </c>
       <c r="H18">
         <v>22237000</v>
@@ -2676,14 +2799,14 @@
       </c>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>20000000</v>
+        <v>19645000</v>
       </c>
       <c r="C19">
-        <v>20000000</v>
+        <v>20733000</v>
       </c>
       <c r="D19">
         <v>20414000</v>
@@ -2692,10 +2815,10 @@
         <v>20000000</v>
       </c>
       <c r="F19">
-        <v>21000000</v>
+        <v>21158000</v>
       </c>
       <c r="G19">
-        <v>22000000</v>
+        <v>21609000</v>
       </c>
       <c r="H19">
         <v>22799000</v>
@@ -2810,11 +2933,11 @@
       </c>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B20">
-        <v>0.5006</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="C20">
         <v>0.5153</v>
@@ -2826,7 +2949,7 @@
         <v>0.519</v>
       </c>
       <c r="F20">
-        <v>0.5296999999999999</v>
+        <v>0.5298</v>
       </c>
       <c r="G20">
         <v>0.5247000000000001</v>
@@ -2944,8 +3067,8 @@
       </c>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B21">
         <v>0.1814</v>
@@ -3078,14 +3201,14 @@
       </c>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>0.1669</v>
+        <v>0.167</v>
       </c>
       <c r="C22">
-        <v>0.1945</v>
+        <v>0.1944</v>
       </c>
       <c r="D22">
         <v>0.1924</v>
@@ -3094,7 +3217,7 @@
         <v>0.1925</v>
       </c>
       <c r="F22">
-        <v>0.1733</v>
+        <v>0.1734</v>
       </c>
       <c r="G22">
         <v>0.1938</v>
@@ -3212,8 +3335,8 @@
       </c>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B23">
         <v>0.1353</v>
@@ -3228,7 +3351,7 @@
         <v>0.1534</v>
       </c>
       <c r="F23">
-        <v>0.1401</v>
+        <v>0.14</v>
       </c>
       <c r="G23">
         <v>0.1513</v>
@@ -3346,14 +3469,14 @@
       </c>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>832000000</v>
+        <v>834191000</v>
       </c>
       <c r="C24">
-        <v>1245000000</v>
+        <v>1248122000</v>
       </c>
       <c r="D24">
         <v>890205900</v>
@@ -3362,10 +3485,10 @@
         <v>888000000</v>
       </c>
       <c r="F24">
-        <v>726000000</v>
+        <v>729186000</v>
       </c>
       <c r="G24">
-        <v>854000000</v>
+        <v>856714100</v>
       </c>
       <c r="H24">
         <v>1177202000</v>
@@ -3480,8 +3603,8 @@
       </c>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B25">
         <v>723033000</v>
@@ -3608,8 +3731,8 @@
       </c>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B26">
         <v>539318000</v>
@@ -3736,14 +3859,14 @@
       </c>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>539000000</v>
+        <v>539318000</v>
       </c>
       <c r="C27">
-        <v>810000000</v>
+        <v>810043000</v>
       </c>
       <c r="D27">
         <v>592571000</v>
@@ -3752,10 +3875,10 @@
         <v>593000000</v>
       </c>
       <c r="F27">
-        <v>472000000</v>
+        <v>471755000</v>
       </c>
       <c r="G27">
-        <v>555000000</v>
+        <v>555235000</v>
       </c>
       <c r="H27">
         <v>785770900</v>
@@ -3870,8 +3993,8 @@
       </c>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B28">
         <v>28.3747</v>
@@ -3998,8 +4121,8 @@
       </c>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B29">
         <v>27.4532</v>
@@ -4126,8 +4249,8 @@
       </c>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B30">
         <v>28.3747</v>
@@ -4254,8 +4377,8 @@
       </c>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B31">
         <v>27.4532</v>
@@ -4382,8 +4505,8 @@
       </c>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B32">
         <v>19645000</v>
@@ -4507,14 +4630,14 @@
       </c>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B33">
-        <v>0.2088</v>
+        <v>0.2093</v>
       </c>
       <c r="C33">
-        <v>0.2328</v>
+        <v>0.2334</v>
       </c>
       <c r="D33">
         <v>0.2303</v>
@@ -4523,10 +4646,10 @@
         <v>0.2298</v>
       </c>
       <c r="F33">
-        <v>0.2154</v>
+        <v>0.2164</v>
       </c>
       <c r="G33">
-        <v>0.2328</v>
+        <v>0.2335</v>
       </c>
       <c r="H33">
         <v>0.2396</v>
@@ -4641,8 +4764,8 @@
       </c>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B34">
         <v>0.1991</v>
